--- a/data/trans_orig/P16A11-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P16A11-Dificultad-trans_orig.xlsx
@@ -554,7 +554,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
+          <t>Población según si ha consumido medicamentos para la tensión arterial en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1879,7 +1879,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2012 (tasa de respuesta: 99,77%)</t>
+          <t>Población según si ha consumido medicamentos para la tensión arterial en las dos últimas semanas en 2012 (tasa de respuesta: 99,77%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3204,7 +3204,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
+          <t>Población según si ha consumido medicamentos para la tensión arterial en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4529,7 +4529,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2023 (tasa de respuesta: 99,93%)</t>
+          <t>Población según si ha consumido medicamentos para la tensión arterial en las dos últimas semanas en 2023 (tasa de respuesta: 99,93%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16A11-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P16A11-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>112957</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>94404</v>
+        <v>95541</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>132894</v>
+        <v>135244</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1933723505440307</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1616117855095373</v>
+        <v>0.1635579714361439</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2275040782340446</v>
+        <v>0.2315262173385756</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>214</v>
@@ -765,19 +765,19 @@
         <v>220447</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>193244</v>
+        <v>195269</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>245737</v>
+        <v>246027</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2390099405455995</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2095167993717967</v>
+        <v>0.2117121749316449</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2664295085576047</v>
+        <v>0.2667439471925185</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>331</v>
@@ -786,19 +786,19 @@
         <v>333403</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>302906</v>
+        <v>304162</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>370030</v>
+        <v>366045</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2213137861620347</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2010694988011479</v>
+        <v>0.2019031834577313</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2456267641182327</v>
+        <v>0.2429815788039628</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>471184</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>451247</v>
+        <v>448897</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>489737</v>
+        <v>488600</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8066276494559693</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7724959217659555</v>
+        <v>0.7684737826614244</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8383882144904627</v>
+        <v>0.8364420285638561</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>671</v>
@@ -836,19 +836,19 @@
         <v>701886</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>676596</v>
+        <v>676306</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>729089</v>
+        <v>727064</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7609900594544006</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7335704914423952</v>
+        <v>0.7332560528074814</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7904832006282032</v>
+        <v>0.788287825068355</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1128</v>
@@ -857,19 +857,19 @@
         <v>1173071</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1136444</v>
+        <v>1140429</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1203568</v>
+        <v>1202312</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7786862138379653</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7543732358817673</v>
+        <v>0.7570184211960371</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7989305011988522</v>
+        <v>0.7980968165422687</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>125041</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>105339</v>
+        <v>106523</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>145549</v>
+        <v>146759</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1160047421488692</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09772680854218524</v>
+        <v>0.09882503634617215</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.135030464970408</v>
+        <v>0.1361537304454506</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>161</v>
@@ -982,19 +982,19 @@
         <v>166223</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>143733</v>
+        <v>143856</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>190881</v>
+        <v>190268</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1571792683426557</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.135912647709578</v>
+        <v>0.1360287300759278</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.180495977692322</v>
+        <v>0.179916260391702</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>288</v>
@@ -1003,19 +1003,19 @@
         <v>291264</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>261833</v>
+        <v>260737</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>323889</v>
+        <v>322267</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1363957569332727</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1226137395460874</v>
+        <v>0.122100465210766</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1516738874720703</v>
+        <v>0.1509140007683521</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>952853</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>932345</v>
+        <v>931135</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>972555</v>
+        <v>971371</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8839952578511308</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8649695350295918</v>
+        <v>0.8638462695545495</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.902273191457814</v>
+        <v>0.9011749636538279</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>867</v>
@@ -1053,19 +1053,19 @@
         <v>891315</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>866657</v>
+        <v>867270</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>913805</v>
+        <v>913682</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8428207316573443</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.819504022307678</v>
+        <v>0.8200837396082979</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.864087352290422</v>
+        <v>0.8639712699240721</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1795</v>
@@ -1074,19 +1074,19 @@
         <v>1844168</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1811543</v>
+        <v>1813165</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1873599</v>
+        <v>1874695</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8636042430667273</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8483261125279297</v>
+        <v>0.8490859992316478</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8773862604539128</v>
+        <v>0.877899534789234</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>129142</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>107912</v>
+        <v>108459</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>152384</v>
+        <v>150461</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.115246187071223</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09630059822662225</v>
+        <v>0.09678869072078035</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1359875057421592</v>
+        <v>0.1342708207371721</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>125</v>
@@ -1199,19 +1199,19 @@
         <v>128534</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>108140</v>
+        <v>108276</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>150382</v>
+        <v>152650</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1293176838902514</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1087991908215389</v>
+        <v>0.1089362052386728</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1512989197087618</v>
+        <v>0.1535803018072239</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>254</v>
@@ -1220,19 +1220,19 @@
         <v>257676</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>229331</v>
+        <v>227839</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>287863</v>
+        <v>286077</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.121860570645651</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1084554927751714</v>
+        <v>0.107750016394328</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1361366050437898</v>
+        <v>0.1352918694142231</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>991434</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>968192</v>
+        <v>970115</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1012664</v>
+        <v>1012117</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.884753812928777</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.864012494257841</v>
+        <v>0.8657291792628279</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9036994017733778</v>
+        <v>0.9032113092792197</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>857</v>
@@ -1270,19 +1270,19 @@
         <v>865406</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>843558</v>
+        <v>841290</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>885800</v>
+        <v>885664</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8706823161097486</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8487010802912381</v>
+        <v>0.8464196981927754</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.891200809178461</v>
+        <v>0.8910637947613268</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1830</v>
@@ -1291,19 +1291,19 @@
         <v>1856840</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1826653</v>
+        <v>1828439</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1885185</v>
+        <v>1886677</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.878139429354349</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8638633949562101</v>
+        <v>0.8647081305857763</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8915445072248287</v>
+        <v>0.8922499836056718</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>40096</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>29231</v>
+        <v>29172</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>52781</v>
+        <v>53002</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08965972928879365</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06536466340777046</v>
+        <v>0.06523165629155872</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1180249505092378</v>
+        <v>0.1185186531540081</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>35</v>
@@ -1416,19 +1416,19 @@
         <v>35301</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>24894</v>
+        <v>26058</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>47051</v>
+        <v>48935</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1034744651955118</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07296931733555928</v>
+        <v>0.07638028434258289</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1379169125663827</v>
+        <v>0.1434368473493649</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>75</v>
@@ -1437,19 +1437,19 @@
         <v>75397</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>59436</v>
+        <v>59576</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>92460</v>
+        <v>91917</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09563799161803897</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07539238072460776</v>
+        <v>0.07556917295439533</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1172816820528801</v>
+        <v>0.116593123122829</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>407104</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>394419</v>
+        <v>394198</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>417969</v>
+        <v>418028</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9103402707112064</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8819750494907622</v>
+        <v>0.881481346845992</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9346353365922297</v>
+        <v>0.9347683437084414</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>304</v>
@@ -1487,19 +1487,19 @@
         <v>305857</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>294107</v>
+        <v>292223</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>316264</v>
+        <v>315100</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8965255348044882</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8620830874336174</v>
+        <v>0.8565631526506351</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9270306826644408</v>
+        <v>0.9236197156574171</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>700</v>
@@ -1508,19 +1508,19 @@
         <v>712961</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>695898</v>
+        <v>696441</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>728922</v>
+        <v>728782</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.904362008381961</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8827183179471199</v>
+        <v>0.883406876877171</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9246076192753923</v>
+        <v>0.9244308270456046</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>407236</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>372846</v>
+        <v>370594</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>447648</v>
+        <v>444359</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1260864852038344</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1154388669171014</v>
+        <v>0.1147415642771801</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1385988801342082</v>
+        <v>0.1375804540041331</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>535</v>
@@ -1633,19 +1633,19 @@
         <v>550505</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>508150</v>
+        <v>508086</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>594318</v>
+        <v>592595</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1660664034108106</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1532894292087052</v>
+        <v>0.1532701039736654</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1792832711862265</v>
+        <v>0.1787632229125838</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>948</v>
@@ -1654,19 +1654,19 @@
         <v>957740</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>900130</v>
+        <v>905072</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1012786</v>
+        <v>1015879</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.146336544548322</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1375340451136398</v>
+        <v>0.1382890969218158</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1547470689469567</v>
+        <v>0.1552196721603513</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>2822575</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2782163</v>
+        <v>2785452</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2856965</v>
+        <v>2859217</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8739135147961655</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8614011198657924</v>
+        <v>0.862419545995867</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8845611330828986</v>
+        <v>0.88525843572282</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2699</v>
@@ -1704,19 +1704,19 @@
         <v>2764464</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2720651</v>
+        <v>2722374</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2806819</v>
+        <v>2806883</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8339335965891894</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8207167288137736</v>
+        <v>0.8212367770874159</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8467105707912947</v>
+        <v>0.8467298960263344</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5453</v>
@@ -1725,19 +1725,19 @@
         <v>5587040</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5531994</v>
+        <v>5528901</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5644650</v>
+        <v>5639708</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.853663455451678</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8452529310530436</v>
+        <v>0.8447803278396487</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8624659548863601</v>
+        <v>0.8617109030781842</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>160440</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>135583</v>
+        <v>137148</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>185647</v>
+        <v>184694</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.154001336429257</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1301419439616608</v>
+        <v>0.131643806412594</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1781968898283226</v>
+        <v>0.1772825399546518</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>240</v>
@@ -2090,19 +2090,19 @@
         <v>255007</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>225154</v>
+        <v>224863</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>282539</v>
+        <v>284636</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.228969561385548</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2021642999888294</v>
+        <v>0.2019033037673941</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2536907328810146</v>
+        <v>0.2555734781066816</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>383</v>
@@ -2111,19 +2111,19 @@
         <v>415447</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>379864</v>
+        <v>376681</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>454652</v>
+        <v>453386</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1927359018714964</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1762282059770423</v>
+        <v>0.1747516339590713</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2109238946208691</v>
+        <v>0.2103369545862755</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>881368</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>856161</v>
+        <v>857114</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>906225</v>
+        <v>904660</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.845998663570743</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8218031101716778</v>
+        <v>0.8227174600453482</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8698580560383393</v>
+        <v>0.868356193587406</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>786</v>
@@ -2161,19 +2161,19 @@
         <v>858709</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>831177</v>
+        <v>829080</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>888562</v>
+        <v>888853</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.771030438614452</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7463092671189854</v>
+        <v>0.7444265218933185</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7978357000111704</v>
+        <v>0.7980966962326059</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1619</v>
@@ -2182,19 +2182,19 @@
         <v>1740077</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1700872</v>
+        <v>1702138</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1775660</v>
+        <v>1778843</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8072640981285036</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7890761053791309</v>
+        <v>0.7896630454137242</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8237717940229576</v>
+        <v>0.8252483660409287</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>173043</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>148033</v>
+        <v>151020</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>197378</v>
+        <v>199639</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1774174159040207</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1517748537307211</v>
+        <v>0.1548374904417679</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2023675162853781</v>
+        <v>0.2046859023258394</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>212</v>
@@ -2307,19 +2307,19 @@
         <v>225815</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>200822</v>
+        <v>197662</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>255518</v>
+        <v>253963</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2067723796635184</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1838868090769406</v>
+        <v>0.1809931866698441</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2339707468452583</v>
+        <v>0.2325462868325209</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>371</v>
@@ -2328,19 +2328,19 @@
         <v>398858</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>361766</v>
+        <v>364257</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>433673</v>
+        <v>435198</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1929237519753068</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1749827372678524</v>
+        <v>0.1761875437971784</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2097634527928932</v>
+        <v>0.2105009137891546</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>802301</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>777966</v>
+        <v>775705</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>827311</v>
+        <v>824324</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8225825840959794</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7976324837146219</v>
+        <v>0.7953140976741606</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8482251462692789</v>
+        <v>0.845162509558232</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>806</v>
@@ -2378,19 +2378,19 @@
         <v>866280</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>836577</v>
+        <v>838132</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>891273</v>
+        <v>894433</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7932276203364816</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7660292531547417</v>
+        <v>0.7674537131674793</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8161131909230593</v>
+        <v>0.8190068133301561</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1569</v>
@@ -2399,19 +2399,19 @@
         <v>1668581</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1633766</v>
+        <v>1632241</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1705673</v>
+        <v>1703182</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8070762480246932</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7902365472071067</v>
+        <v>0.7894990862108454</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8250172627321476</v>
+        <v>0.8238124562028216</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>154544</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>133270</v>
+        <v>132146</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>177863</v>
+        <v>177090</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1747865909046432</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1507261657260761</v>
+        <v>0.1494551558605762</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2011607611636402</v>
+        <v>0.2002863951685444</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>169</v>
@@ -2524,19 +2524,19 @@
         <v>184303</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>160101</v>
+        <v>160820</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>210380</v>
+        <v>207933</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2106898051334472</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1830223405086947</v>
+        <v>0.1838445630066752</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2405001187368109</v>
+        <v>0.2377028928194101</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>312</v>
@@ -2545,19 +2545,19 @@
         <v>338847</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>303415</v>
+        <v>305201</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>374008</v>
+        <v>377577</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1926420211938124</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.172497928029973</v>
+        <v>0.173513459660298</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2126319964548005</v>
+        <v>0.2146609704331573</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>729641</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>706322</v>
+        <v>707095</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>750915</v>
+        <v>752039</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8252134090953568</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7988392388363598</v>
+        <v>0.7997136048314555</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8492738342739239</v>
+        <v>0.8505448441394238</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>651</v>
@@ -2595,19 +2595,19 @@
         <v>690459</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>664382</v>
+        <v>666829</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>714661</v>
+        <v>713942</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7893101948665529</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.759499881263189</v>
+        <v>0.7622971071805897</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8169776594913053</v>
+        <v>0.8161554369933247</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1337</v>
@@ -2616,19 +2616,19 @@
         <v>1420100</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1384939</v>
+        <v>1381370</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1455532</v>
+        <v>1453746</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8073579788061876</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7873680035451994</v>
+        <v>0.7853390295668419</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8275020719700269</v>
+        <v>0.826486540339702</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>75696</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>60665</v>
+        <v>58775</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>93703</v>
+        <v>93224</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1504827387865894</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1206012933472468</v>
+        <v>0.1168432629934723</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1862789574193831</v>
+        <v>0.1853284750034112</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>61</v>
@@ -2741,19 +2741,19 @@
         <v>70124</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>55646</v>
+        <v>54561</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>89457</v>
+        <v>86400</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1555301329952519</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1234203669308214</v>
+        <v>0.1210134131405283</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1984106792380604</v>
+        <v>0.191629987184373</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>129</v>
@@ -2762,19 +2762,19 @@
         <v>145820</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>121714</v>
+        <v>123823</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>169965</v>
+        <v>170558</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1528684514658809</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1275970047012281</v>
+        <v>0.1298078661212286</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1781809907327711</v>
+        <v>0.1788023254616133</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>427327</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>409320</v>
+        <v>409799</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>442358</v>
+        <v>444248</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8495172612134106</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8137210425806172</v>
+        <v>0.8146715249965888</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8793987066527533</v>
+        <v>0.8831567370065277</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>349</v>
@@ -2812,19 +2812,19 @@
         <v>380744</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>361411</v>
+        <v>364468</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>395222</v>
+        <v>396307</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8444698670047481</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8015893207619396</v>
+        <v>0.8083700128156268</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8765796330691783</v>
+        <v>0.8789865868594716</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>742</v>
@@ -2833,19 +2833,19 @@
         <v>808071</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>783926</v>
+        <v>783333</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>832177</v>
+        <v>830068</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8471315485341191</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8218190092672291</v>
+        <v>0.8211976745383867</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8724029952987719</v>
+        <v>0.8701921338787715</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>563723</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>520782</v>
+        <v>519133</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>612585</v>
+        <v>609899</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1655884824642865</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1529750646346832</v>
+        <v>0.1524905065604141</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1799414430863094</v>
+        <v>0.1791523965685734</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>682</v>
@@ -2958,19 +2958,19 @@
         <v>735249</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>686903</v>
+        <v>686335</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>785599</v>
+        <v>787748</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2082008805065211</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1945107619270928</v>
+        <v>0.194349883718901</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2224585907558452</v>
+        <v>0.2230669465650608</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1195</v>
@@ -2979,19 +2979,19 @@
         <v>1298972</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1235082</v>
+        <v>1233628</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1364928</v>
+        <v>1369557</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1872850601171082</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1780735182426171</v>
+        <v>0.1778638510826464</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1967945017604582</v>
+        <v>0.1974619702953205</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>2840637</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2791775</v>
+        <v>2794461</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2883578</v>
+        <v>2885227</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8344115175357134</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8200585569136906</v>
+        <v>0.8208476034314268</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.847024935365317</v>
+        <v>0.847509493439586</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2592</v>
@@ -3029,19 +3029,19 @@
         <v>2796191</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2745841</v>
+        <v>2743692</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2844537</v>
+        <v>2845105</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7917991194934788</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7775414092441548</v>
+        <v>0.7769330534349393</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8054892380729073</v>
+        <v>0.8056501162810989</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5267</v>
@@ -3050,19 +3050,19 @@
         <v>5636829</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5570873</v>
+        <v>5566244</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5700719</v>
+        <v>5702173</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8127149398828918</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8032054982395418</v>
+        <v>0.8025380297046795</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8219264817573831</v>
+        <v>0.8221361489173538</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>157994</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>136398</v>
+        <v>137625</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>185945</v>
+        <v>184664</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1400663027379301</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.120920651746538</v>
+        <v>0.122008428768287</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1648455929046368</v>
+        <v>0.1637097802133735</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>218</v>
@@ -3415,19 +3415,19 @@
         <v>252428</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>222621</v>
+        <v>222530</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>285600</v>
+        <v>285835</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2004096949098114</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1767449358057882</v>
+        <v>0.1766722911498449</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2267460329317409</v>
+        <v>0.2269325261696857</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>373</v>
@@ -3436,19 +3436,19 @@
         <v>410423</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>370656</v>
+        <v>375706</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>448807</v>
+        <v>452441</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1719005741990581</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1552446882200942</v>
+        <v>0.1573601026534664</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1879773357801109</v>
+        <v>0.189499589120683</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>970003</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>942052</v>
+        <v>943333</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>991599</v>
+        <v>990372</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8599336972620699</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8351544070953631</v>
+        <v>0.8362902197866258</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.879079348253462</v>
+        <v>0.8779915712317126</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>970</v>
@@ -3486,19 +3486,19 @@
         <v>1007133</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>973961</v>
+        <v>973726</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1036940</v>
+        <v>1037031</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7995903050901886</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.773253967068259</v>
+        <v>0.7730674738303145</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8232550641942118</v>
+        <v>0.8233277088501555</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1881</v>
@@ -3507,19 +3507,19 @@
         <v>1977135</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1938751</v>
+        <v>1935117</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2016902</v>
+        <v>2011852</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8280994258009419</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8120226642198891</v>
+        <v>0.810500410879317</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8447553117799057</v>
+        <v>0.8426398973465336</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>131173</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>110518</v>
+        <v>111238</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>152083</v>
+        <v>153673</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1443323689672536</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1216050828064453</v>
+        <v>0.1223974859101452</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1673398278414716</v>
+        <v>0.1690894556247005</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>143</v>
@@ -3632,19 +3632,19 @@
         <v>164429</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>141280</v>
+        <v>141969</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>189767</v>
+        <v>189475</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1633712097603729</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1403706876589348</v>
+        <v>0.1410552363148863</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1885465300765563</v>
+        <v>0.1882561927049658</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>276</v>
@@ -3653,19 +3653,19 @@
         <v>295602</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>264884</v>
+        <v>263842</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>332365</v>
+        <v>327417</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.154337131761245</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1382989674618098</v>
+        <v>0.1377550791661047</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1735313732011299</v>
+        <v>0.1709481766165611</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>777652</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>756742</v>
+        <v>755152</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>798307</v>
+        <v>797587</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8556676310327463</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8326601721585284</v>
+        <v>0.8309105443752994</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8783949171935547</v>
+        <v>0.8776025140898547</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>808</v>
@@ -3703,19 +3703,19 @@
         <v>842046</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>816708</v>
+        <v>817000</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>865195</v>
+        <v>864506</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.836628790239627</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8114534699234438</v>
+        <v>0.8117438072950343</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8596293123410653</v>
+        <v>0.8589447636851137</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1556</v>
@@ -3724,19 +3724,19 @@
         <v>1619698</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1582935</v>
+        <v>1587883</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1650416</v>
+        <v>1651458</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.845662868238755</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8264686267988705</v>
+        <v>0.8290518233834389</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8617010325381904</v>
+        <v>0.8622449208338953</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>131137</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>111895</v>
+        <v>111814</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>153229</v>
+        <v>154186</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1591935439189113</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1358345832279081</v>
+        <v>0.1357364442280868</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1860115882969151</v>
+        <v>0.1871734492166204</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>112</v>
@@ -3849,19 +3849,19 @@
         <v>133266</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>114012</v>
+        <v>112398</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>158465</v>
+        <v>156504</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1728349256406238</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1478635763222002</v>
+        <v>0.1457707456816554</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.205515926324208</v>
+        <v>0.2029725702356761</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>243</v>
@@ -3870,19 +3870,19 @@
         <v>264403</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>235088</v>
+        <v>232560</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>294529</v>
+        <v>295782</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.165788845750499</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.147407611081456</v>
+        <v>0.1458219758021017</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1846790491943686</v>
+        <v>0.1854646517240451</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>692622</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>670530</v>
+        <v>669573</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>711864</v>
+        <v>711945</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8408064560810887</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8139884117030849</v>
+        <v>0.8128265507833795</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8641654167720919</v>
+        <v>0.8642635557719132</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>616</v>
@@ -3920,19 +3920,19 @@
         <v>637793</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>612594</v>
+        <v>614555</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>657047</v>
+        <v>658661</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8271650743593761</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.794484073675792</v>
+        <v>0.7970274297643242</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8521364236777997</v>
+        <v>0.8542292543183446</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1272</v>
@@ -3941,19 +3941,19 @@
         <v>1330415</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1300289</v>
+        <v>1299036</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1359730</v>
+        <v>1362258</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.834211154249501</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8153209508056313</v>
+        <v>0.8145353482759548</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8525923889185441</v>
+        <v>0.854178024197898</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>79982</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>64772</v>
+        <v>64295</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>98729</v>
+        <v>97043</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1578490639516933</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1278305215019077</v>
+        <v>0.1268892007981611</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1948463541822076</v>
+        <v>0.1915194779860807</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>60</v>
@@ -4066,19 +4066,19 @@
         <v>74343</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>57678</v>
+        <v>57038</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>92387</v>
+        <v>94022</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1518136443036988</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.117782210628434</v>
+        <v>0.11647597626243</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1886606214485516</v>
+        <v>0.1919999300446301</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>139</v>
@@ -4087,19 +4087,19 @@
         <v>154325</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>129904</v>
+        <v>130523</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>179136</v>
+        <v>182748</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1548828507697949</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1303734910128534</v>
+        <v>0.1309950983984132</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1797830869606552</v>
+        <v>0.1834089042122432</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>426719</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>407972</v>
+        <v>409658</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>441929</v>
+        <v>442406</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8421509360483067</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8051536458177924</v>
+        <v>0.8084805220139194</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8721694784980923</v>
+        <v>0.8731107992018389</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>395</v>
@@ -4137,19 +4137,19 @@
         <v>415355</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>397311</v>
+        <v>395676</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>432020</v>
+        <v>432660</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8481863556963013</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8113393785514483</v>
+        <v>0.8080000699553702</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8822177893715659</v>
+        <v>0.8835240237375703</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>787</v>
@@ -4158,19 +4158,19 @@
         <v>842073</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>817262</v>
+        <v>813650</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>866494</v>
+        <v>865875</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8451171492302051</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8202169130393443</v>
+        <v>0.8165910957877569</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8696265089871464</v>
+        <v>0.8690049016015879</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>500287</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>462674</v>
+        <v>459798</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>542305</v>
+        <v>543376</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1485728340215421</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1374028776100663</v>
+        <v>0.1365487794614345</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1610512415766792</v>
+        <v>0.1613692623465686</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>533</v>
@@ -4283,19 +4283,19 @@
         <v>624466</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>577927</v>
+        <v>578622</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>671423</v>
+        <v>672855</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1770634225410316</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1638676373498855</v>
+        <v>0.1640645675413751</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1903779383605699</v>
+        <v>0.1907837475631504</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1031</v>
@@ -4304,19 +4304,19 @@
         <v>1124753</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1065841</v>
+        <v>1062314</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1188444</v>
+        <v>1194348</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1631477255819003</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1546025113032835</v>
+        <v>0.1540908198742992</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1723863071168018</v>
+        <v>0.1732426510811695</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>2866995</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2824977</v>
+        <v>2823906</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2904608</v>
+        <v>2907484</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8514271659784579</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8389487584233207</v>
+        <v>0.8386307376534313</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8625971223899337</v>
+        <v>0.8634512205385649</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2789</v>
@@ -4354,19 +4354,19 @@
         <v>2902326</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2855369</v>
+        <v>2853937</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2948865</v>
+        <v>2948170</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8229365774589684</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8096220616394301</v>
+        <v>0.8092162524368496</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8361323626501145</v>
+        <v>0.8359354324586249</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5496</v>
@@ -4375,19 +4375,19 @@
         <v>5769322</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5705631</v>
+        <v>5699727</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5828234</v>
+        <v>5831761</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8368522744180997</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8276136928831981</v>
+        <v>0.8267573489188302</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8453974886967164</v>
+        <v>0.8459091801257007</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>86478</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>71681</v>
+        <v>71244</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>104257</v>
+        <v>104277</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.173393072765795</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1437249018028566</v>
+        <v>0.1428480826098035</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.209041303318591</v>
+        <v>0.2090821372442345</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>296</v>
@@ -4740,19 +4740,19 @@
         <v>173993</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>155968</v>
+        <v>158446</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>192032</v>
+        <v>194636</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2790231173653229</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2501166558317215</v>
+        <v>0.2540901820302643</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3079504169927565</v>
+        <v>0.3121264708673117</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>399</v>
@@ -4761,19 +4761,19 @@
         <v>260471</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>237163</v>
+        <v>236222</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>283988</v>
+        <v>286404</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2320829602902715</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2113145264332581</v>
+        <v>0.2104768642131594</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2530362143291076</v>
+        <v>0.2551891351872904</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>412261</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>394482</v>
+        <v>394462</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>427058</v>
+        <v>427495</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.826606927234205</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7909586966814088</v>
+        <v>0.7909178627557656</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8562750981971434</v>
+        <v>0.8571519173901967</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>565</v>
@@ -4811,19 +4811,19 @@
         <v>449587</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>431548</v>
+        <v>428944</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>467612</v>
+        <v>465134</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.7209768826346771</v>
+        <v>0.7209768826346769</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6920495830072436</v>
+        <v>0.6878735291326884</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7498833441682786</v>
+        <v>0.7459098179697357</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>917</v>
@@ -4832,19 +4832,19 @@
         <v>861849</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>838332</v>
+        <v>835916</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>885157</v>
+        <v>886098</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7679170397097285</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7469637856708926</v>
+        <v>0.7448108648127097</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.788685473566742</v>
+        <v>0.7895231357868405</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>170115</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>145913</v>
+        <v>148575</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>191795</v>
+        <v>198430</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1771775738971509</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1519708722972453</v>
+        <v>0.1547433042957502</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1997574958168369</v>
+        <v>0.2066689412453762</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>435</v>
@@ -4957,19 +4957,19 @@
         <v>239383</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>218258</v>
+        <v>217556</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>261638</v>
+        <v>259670</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2146458296843272</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1957040487090728</v>
+        <v>0.1950742200062865</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2346008880100114</v>
+        <v>0.2328368637691508</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>666</v>
@@ -4978,19 +4978,19 @@
         <v>409498</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>380351</v>
+        <v>379354</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>441930</v>
+        <v>443894</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.197311849138005</v>
+        <v>0.1973118491380049</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1832680631166601</v>
+        <v>0.1827875981428611</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2129390396326286</v>
+        <v>0.2138852820809165</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>790022</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>768342</v>
+        <v>761707</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>814224</v>
+        <v>811562</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8228224261028492</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8002425041831629</v>
+        <v>0.793331058754624</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8480291277027546</v>
+        <v>0.8452566957042498</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1171</v>
@@ -5028,19 +5028,19 @@
         <v>875863</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>853608</v>
+        <v>855576</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>896988</v>
+        <v>897690</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7853541703156728</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.765399111989989</v>
+        <v>0.7671631362308492</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8042959512909272</v>
+        <v>0.8049257799937133</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1850</v>
@@ -5049,19 +5049,19 @@
         <v>1665885</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1633453</v>
+        <v>1631489</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1695032</v>
+        <v>1696029</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.802688150861995</v>
+        <v>0.8026881508619951</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7870609603673714</v>
+        <v>0.7861147179190834</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8167319368833399</v>
+        <v>0.8172124018571387</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>213744</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>189548</v>
+        <v>190745</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>236856</v>
+        <v>242316</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2042507730905584</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1811293767103958</v>
+        <v>0.1822729083727184</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2263357031447882</v>
+        <v>0.2315532893293459</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>347</v>
@@ -5174,19 +5174,19 @@
         <v>189209</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>171889</v>
+        <v>169808</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>208520</v>
+        <v>209264</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.1806042333756827</v>
+        <v>0.1806042333756828</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1640723465300168</v>
+        <v>0.1620857969076689</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1990374669791581</v>
+        <v>0.1997479994263944</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>625</v>
@@ -5195,19 +5195,19 @@
         <v>402953</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>370281</v>
+        <v>372166</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>430417</v>
+        <v>432702</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1924209406398956</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1768190810416605</v>
+        <v>0.1777196329087403</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2055359341090014</v>
+        <v>0.2066271084131444</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>832735</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>809623</v>
+        <v>804163</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>856931</v>
+        <v>855734</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.7957492269094416</v>
+        <v>0.7957492269094415</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7736642968552118</v>
+        <v>0.7684467106706543</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8188706232896045</v>
+        <v>0.8177270916272817</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1169</v>
@@ -5245,19 +5245,19 @@
         <v>858433</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>839122</v>
+        <v>838378</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>875753</v>
+        <v>877834</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8193957666243172</v>
+        <v>0.8193957666243171</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8009625330208422</v>
+        <v>0.8002520005736055</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8359276534699835</v>
+        <v>0.8379142030923308</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1920</v>
@@ -5266,19 +5266,19 @@
         <v>1691168</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1663704</v>
+        <v>1661419</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1723840</v>
+        <v>1721955</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8075790593601045</v>
+        <v>0.8075790593601044</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7944640658909984</v>
+        <v>0.7933728915868556</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8231809189583396</v>
+        <v>0.8222803670912596</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>188555</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>163675</v>
+        <v>165320</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>212176</v>
+        <v>214908</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1933882013588081</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1678710683678082</v>
+        <v>0.1695580626200461</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2176148835006773</v>
+        <v>0.2204165598267475</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>292</v>
@@ -5391,19 +5391,19 @@
         <v>155272</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>138638</v>
+        <v>137076</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>173281</v>
+        <v>172241</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1708837793038241</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1525774542890271</v>
+        <v>0.1508576098375369</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.19070357204099</v>
+        <v>0.1895586050449525</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>534</v>
@@ -5412,19 +5412,19 @@
         <v>343827</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>314756</v>
+        <v>313596</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>372966</v>
+        <v>374830</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1825324299694598</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.167098981240768</v>
+        <v>0.1664834113222282</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1980019468810109</v>
+        <v>0.198991419126942</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>786452</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>762831</v>
+        <v>760099</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>811332</v>
+        <v>809687</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8066117986411918</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7823851164993229</v>
+        <v>0.7795834401732523</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.832128931632192</v>
+        <v>0.830441937379954</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1029</v>
@@ -5462,19 +5462,19 @@
         <v>753370</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>735361</v>
+        <v>736401</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>770004</v>
+        <v>771566</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8291162206961759</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.80929642795901</v>
+        <v>0.8104413949550475</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8474225457109728</v>
+        <v>0.8491423901624631</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1733</v>
@@ -5483,19 +5483,19 @@
         <v>1539822</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1510683</v>
+        <v>1508819</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1568893</v>
+        <v>1570053</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8174675700305405</v>
+        <v>0.8174675700305402</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8019980531189892</v>
+        <v>0.801008580873058</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8329010187592319</v>
+        <v>0.8335165886777719</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>658892</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>613940</v>
+        <v>619631</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>699837</v>
+        <v>706714</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1893169814923872</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1764012801751021</v>
+        <v>0.1780365029779829</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2010816987195429</v>
+        <v>0.2030575659406432</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1370</v>
@@ -5608,19 +5608,19 @@
         <v>757857</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>718137</v>
+        <v>720792</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>795015</v>
+        <v>799458</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2050972581589091</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1943480331733544</v>
+        <v>0.195066396981484</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2151532233877755</v>
+        <v>0.2163557604269352</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2224</v>
@@ -5629,19 +5629,19 @@
         <v>1416749</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1355613</v>
+        <v>1360633</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1475386</v>
+        <v>1479549</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1974432561827974</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1889232003905854</v>
+        <v>0.1896227749638477</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2056150868307768</v>
+        <v>0.206195302456824</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>2821470</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2780525</v>
+        <v>2773648</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2866422</v>
+        <v>2860731</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.810683018507613</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7989183012804569</v>
+        <v>0.7969424340593564</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8235987198248979</v>
+        <v>0.821963497022017</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3934</v>
@@ -5679,19 +5679,19 @@
         <v>2937253</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2900095</v>
+        <v>2895652</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2976973</v>
+        <v>2974318</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.7949027418410908</v>
+        <v>0.7949027418410909</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7848467766122245</v>
+        <v>0.7836442395730646</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8056519668266456</v>
+        <v>0.8049336030185159</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6420</v>
@@ -5700,19 +5700,19 @@
         <v>5758724</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5700087</v>
+        <v>5695924</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5819860</v>
+        <v>5814840</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8025567438172025</v>
+        <v>0.8025567438172027</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7943849131692238</v>
+        <v>0.7938046975431761</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8110767996094148</v>
+        <v>0.8103772250361522</v>
       </c>
     </row>
     <row r="18">
